--- a/ExcelData/TC_ManageLeaveTypes.xlsx
+++ b/ExcelData/TC_ManageLeaveTypes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23340" windowHeight="3615"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23370" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,10 @@
     <t>leaveTypeDescription</t>
   </si>
   <si>
-    <t>Paid Leave</t>
+    <t xml:space="preserve">Leave with pay FDSF DFF SD dfsf </t>
   </si>
   <si>
-    <t>Leave with pay</t>
+    <t>Emergency Leave</t>
   </si>
 </sst>
 </file>
@@ -349,19 +349,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -369,17 +369,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>